--- a/opset_20/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
+++ b/opset_20/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
@@ -46,12 +46,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="00DEDEDE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DEDEDE"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -800,10 +800,14 @@
           <t>TensorrtExecutionProvider</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr"/>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>FAIL session creation: [ONNXRuntimeError] : 1 : FAIL : TensorRT EP failed to create engine from network for fused node: TensorrtExecutionProvider_TRTKernel_graph_bernoulli_graph_3158215355511095402_0_0</t>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>TensorrtExecutionProvider</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
@@ -933,9 +937,9 @@
           <t>TensorrtExecutionProvider</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1131,7 @@
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>UNKNOWN (no Node event)</t>
         </is>
@@ -1237,9 +1241,9 @@
           <t>TensorrtExecutionProvider</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1325,7 @@
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr"/>
-      <c r="D33" s="4" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", DequantizeLinear, "", -1) : ("x": tensor(uint8),"x_scale": tensor(float),"x_zero_point": tensor(uint8),) -&gt; ("y": tensor(float),) , Error Unrecognized attribute: block_size for operator DequantizeLinear</t>
         </is>
@@ -1779,7 +1783,7 @@
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr"/>
-      <c r="D54" s="4" t="inlineStr">
+      <c r="D54" s="5" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", GroupNormalization, "", -1) : ("X": tensor(float),"scale": tensor(float),"B": tensor(float),) -&gt; ("Y": tensor(float),) , Error Unrecognized attribute: stash_type for operator GroupNormalization</t>
         </is>
@@ -1801,9 +1805,9 @@
           <t>TensorrtExecutionProvider</t>
         </is>
       </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
@@ -1823,9 +1827,9 @@
           <t>TensorrtExecutionProvider</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1955,7 @@
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr"/>
-      <c r="D62" s="4" t="inlineStr">
+      <c r="D62" s="5" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ImageDecoder(20) node with name ''</t>
         </is>
@@ -2523,9 +2527,9 @@
           <t>TensorrtExecutionProvider</t>
         </is>
       </c>
-      <c r="D88" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
@@ -2545,9 +2549,9 @@
           <t>TensorrtExecutionProvider</t>
         </is>
       </c>
-      <c r="D89" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
@@ -3293,9 +3297,9 @@
           <t>TensorrtExecutionProvider</t>
         </is>
       </c>
-      <c r="D123" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
@@ -3381,9 +3385,9 @@
           <t>TensorrtExecutionProvider</t>
         </is>
       </c>
-      <c r="D127" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3535,7 @@
         </is>
       </c>
       <c r="C134" s="1" t="inlineStr"/>
-      <c r="D134" s="4" t="inlineStr">
+      <c r="D134" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FAIL session creation: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Exception during initialization: C:\Users\COCO\onnxruntime_tensorrt\onnxruntime\core\providers\tensorrt\tensorrt_execution_provider.cc:2276 onnxruntime::TensorrtExecutionProvider::GetSupportedList graph_build.Resolve().IsOK() was false. 
 </t>
@@ -3550,7 +3554,7 @@
         </is>
       </c>
       <c r="C135" s="1" t="inlineStr"/>
-      <c r="D135" s="5" t="inlineStr">
+      <c r="D135" s="4" t="inlineStr">
         <is>
           <t>UNKNOWN (no Node event)</t>
         </is>
@@ -3594,9 +3598,9 @@
           <t>TensorrtExecutionProvider</t>
         </is>
       </c>
-      <c r="D137" s="3" t="inlineStr">
-        <is>
-          <t>SUCCESS WITH FALLBACK</t>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>SUCCESS (via decomposition)</t>
         </is>
       </c>
     </row>
@@ -3612,7 +3616,7 @@
         </is>
       </c>
       <c r="C138" s="1" t="inlineStr"/>
-      <c r="D138" s="4" t="inlineStr">
+      <c r="D138" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FAIL session creation: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Exception during initialization: C:\Users\COCO\onnxruntime_tensorrt\onnxruntime\core\providers\tensorrt\tensorrt_execution_provider.cc:2276 onnxruntime::TensorrtExecutionProvider::GetSupportedList graph_build.Resolve().IsOK() was false. 
 </t>
@@ -4049,7 +4053,7 @@
         </is>
       </c>
       <c r="C158" s="1" t="inlineStr"/>
-      <c r="D158" s="4" t="inlineStr">
+      <c r="D158" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FAIL session creation: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Exception during initialization: C:\Users\COCO\onnxruntime_tensorrt\onnxruntime\core\providers\tensorrt\tensorrt_execution_provider.cc:2276 onnxruntime::TensorrtExecutionProvider::GetSupportedList graph_build.Resolve().IsOK() was false. 
 </t>
@@ -4156,7 +4160,7 @@
         </is>
       </c>
       <c r="C163" s="1" t="inlineStr"/>
-      <c r="D163" s="4" t="inlineStr">
+      <c r="D163" s="5" t="inlineStr">
         <is>
           <t>FAIL run: [ONNXRuntimeError] : 2 : INVALID_ARGUMENT : Non-zero status code returned while running BiasSplitGelu node. Name:'' Status Message: hidden size should be 2560, 5120, 6144, 10240 or 12288, got 12</t>
         </is>
@@ -4328,7 +4332,7 @@
         </is>
       </c>
       <c r="C171" s="1" t="inlineStr"/>
-      <c r="D171" s="4" t="inlineStr">
+      <c r="D171" s="5" t="inlineStr">
         <is>
           <t>FAIL (skipped: known crash)</t>
         </is>
@@ -4390,7 +4394,7 @@
         </is>
       </c>
       <c r="C174" s="1" t="inlineStr"/>
-      <c r="D174" s="4" t="inlineStr">
+      <c r="D174" s="5" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 10 : INVALID_GRAPH : This is an invalid model. In Node, ("", com.microsoft.DecoderMaskedSelfAttention, "", -1) : ("X": tensor(float),) -&gt; ("Y": tensor(float),) , Error No Op registered for com.microsoft.DecoderMaskedSelfAttention with domain_version of 20</t>
         </is>
@@ -4408,7 +4412,7 @@
         </is>
       </c>
       <c r="C175" s="1" t="inlineStr"/>
-      <c r="D175" s="4" t="inlineStr">
+      <c r="D175" s="5" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for DequantizeBFP(1) node with name ''</t>
         </is>
@@ -4770,7 +4774,7 @@
         </is>
       </c>
       <c r="C192" s="1" t="inlineStr"/>
-      <c r="D192" s="4" t="inlineStr">
+      <c r="D192" s="5" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for GemmFastGelu(1) node with name ''</t>
         </is>
@@ -5004,7 +5008,7 @@
         </is>
       </c>
       <c r="C203" s="1" t="inlineStr"/>
-      <c r="D203" s="4" t="inlineStr">
+      <c r="D203" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FAIL run: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Non-zero status code returned while running MatMulFpQ4 node. Name:'' Status Message: C:\Users\COCO\onnxruntime_tensorrt\onnxruntime\contrib_ops\cpu\matmul_fpq4.cc:55 onnxruntime::contrib::MatMulFpQ4::Compute buf_size &gt; 0 was false. Operator MatMulFpQ4 not yet supported on this hardware platform.
 </t>
@@ -5133,7 +5137,7 @@
         </is>
       </c>
       <c r="C209" s="1" t="inlineStr"/>
-      <c r="D209" s="4" t="inlineStr">
+      <c r="D209" s="5" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for MulInteger(1) node with name ''</t>
         </is>
@@ -5217,7 +5221,7 @@
         </is>
       </c>
       <c r="C213" s="1" t="inlineStr"/>
-      <c r="D213" s="4" t="inlineStr">
+      <c r="D213" s="5" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for NhwcConv(1) node with name ''</t>
         </is>
@@ -5539,7 +5543,7 @@
         </is>
       </c>
       <c r="C228" s="1" t="inlineStr"/>
-      <c r="D228" s="4" t="inlineStr">
+      <c r="D228" s="5" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QLinearReduceMean(1) node with name ''</t>
         </is>
@@ -5747,7 +5751,7 @@
         </is>
       </c>
       <c r="C238" s="1" t="inlineStr"/>
-      <c r="D238" s="4" t="inlineStr">
+      <c r="D238" s="5" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for QuantizeBFP(1) node with name ''</t>
         </is>
@@ -5853,7 +5857,7 @@
         </is>
       </c>
       <c r="C243" s="1" t="inlineStr"/>
-      <c r="D243" s="4" t="inlineStr">
+      <c r="D243" s="5" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for ReduceSumInteger(1) node with name ''</t>
         </is>
@@ -6003,7 +6007,7 @@
         </is>
       </c>
       <c r="C250" s="1" t="inlineStr"/>
-      <c r="D250" s="4" t="inlineStr">
+      <c r="D250" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">FAIL session creation: [ONNXRuntimeError] : 6 : RUNTIME_EXCEPTION : Exception during initialization: C:\Users\COCO\onnxruntime_tensorrt\onnxruntime\core\providers\tensorrt\tensorrt_execution_provider.cc:2276 onnxruntime::TensorrtExecutionProvider::GetSupportedList graph_build.Resolve().IsOK() was false. 
 </t>
@@ -6088,7 +6092,7 @@
         </is>
       </c>
       <c r="C254" s="1" t="inlineStr"/>
-      <c r="D254" s="4" t="inlineStr">
+      <c r="D254" s="5" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Snpe(1) node with name ''</t>
         </is>
@@ -6172,7 +6176,7 @@
         </is>
       </c>
       <c r="C258" s="1" t="inlineStr"/>
-      <c r="D258" s="4" t="inlineStr">
+      <c r="D258" s="5" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for TorchEmbedding(1) node with name ''</t>
         </is>
@@ -6256,7 +6260,7 @@
         </is>
       </c>
       <c r="C262" s="1" t="inlineStr"/>
-      <c r="D262" s="4" t="inlineStr">
+      <c r="D262" s="5" t="inlineStr">
         <is>
           <t>FAIL session creation: [ONNXRuntimeError] : 9 : NOT_IMPLEMENTED : Could not find an implementation for Unique(1) node with name ''</t>
         </is>
@@ -6329,10 +6333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C2" t="n">
-        <v>35.5</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="3">
@@ -6342,10 +6346,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C3" t="n">
-        <v>52.7</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="4">
@@ -6394,10 +6398,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -6408,7 +6412,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-08-29 10:45:23</t>
+          <t>2025-11-18 14:38:03</t>
         </is>
       </c>
     </row>

--- a/opset_20/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
+++ b/opset_20/NVIDIA - TensorRT/report_TensorrtExecutionProvider_aggregated.xlsx
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-11-18 14:38:03</t>
+          <t>2025-11-18 14:51:11</t>
         </is>
       </c>
     </row>
